--- a/migforecasting/cities17-18/1/d19.xlsx
+++ b/migforecasting/cities17-18/1/d19.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Albert\.spyder-py3\ITMO-2\migforecasting\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Albert\.spyder-py3\ITMO-2\migforecasting\cities17-18\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="227">
   <si>
     <t>2017</t>
   </si>
@@ -160,15 +160,6 @@
   </si>
   <si>
     <t>из них признаны безработными</t>
-  </si>
-  <si>
-    <t>30,1</t>
-  </si>
-  <si>
-    <t>27,9</t>
-  </si>
-  <si>
-    <t>28,9</t>
   </si>
   <si>
     <t>УРОВЕНЬ ЖИЗНИ НАСЕЛЕНИЯ И СОЦИАЛЬНАЯ СФЕРА</t>
@@ -727,6 +718,9 @@
 8) По коммерческим организациям, без субъектов малого предпринимательства.
 9) Включены данные по всем территориально-обособленным подразделениям  ПАО «НК «Роснефть».
 10) С учетом жилых домов, построенных населением на земельных участках, предназначенных для ведения садоводства.</t>
+  </si>
+  <si>
+    <t>Москва</t>
   </si>
 </sst>
 </file>
@@ -1089,10 +1083,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="G71" sqref="G71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1115,14 +1109,17 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2" t="s">
+        <v>226</v>
+      </c>
       <c r="C2" t="s">
-        <v>0</v>
+        <v>226</v>
       </c>
       <c r="D2" t="s">
-        <v>1</v>
+        <v>226</v>
       </c>
       <c r="E2" t="s">
-        <v>2</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1133,13 +1130,13 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1361,14 +1358,14 @@
       <c r="B17" t="s">
         <v>46</v>
       </c>
-      <c r="C17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" t="s">
-        <v>49</v>
+      <c r="C17">
+        <v>30100</v>
+      </c>
+      <c r="D17">
+        <v>27900</v>
+      </c>
+      <c r="E17">
+        <v>28900</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1376,16 +1373,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D18" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E18" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1393,16 +1390,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" t="s">
         <v>51</v>
-      </c>
-      <c r="C19" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1410,16 +1407,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" t="s">
         <v>55</v>
-      </c>
-      <c r="C20" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" t="s">
-        <v>57</v>
-      </c>
-      <c r="E20" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1427,16 +1424,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" t="s">
         <v>59</v>
-      </c>
-      <c r="C21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" t="s">
-        <v>61</v>
-      </c>
-      <c r="E21" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1444,16 +1441,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D22" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E22" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1461,16 +1458,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" t="s">
         <v>66</v>
-      </c>
-      <c r="C23" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23" t="s">
-        <v>68</v>
-      </c>
-      <c r="E23" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1478,16 +1475,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" t="s">
         <v>70</v>
-      </c>
-      <c r="C24" t="s">
-        <v>71</v>
-      </c>
-      <c r="D24" t="s">
-        <v>72</v>
-      </c>
-      <c r="E24" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1495,7 +1492,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1503,16 +1500,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" t="s">
+        <v>74</v>
+      </c>
+      <c r="E26" t="s">
         <v>75</v>
-      </c>
-      <c r="C26" t="s">
-        <v>76</v>
-      </c>
-      <c r="D26" t="s">
-        <v>77</v>
-      </c>
-      <c r="E26" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1520,16 +1517,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" t="s">
+        <v>78</v>
+      </c>
+      <c r="E27" t="s">
         <v>79</v>
-      </c>
-      <c r="C27" t="s">
-        <v>80</v>
-      </c>
-      <c r="D27" t="s">
-        <v>81</v>
-      </c>
-      <c r="E27" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1537,7 +1534,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1545,16 +1542,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" t="s">
+        <v>82</v>
+      </c>
+      <c r="D29" t="s">
+        <v>83</v>
+      </c>
+      <c r="E29" t="s">
         <v>84</v>
-      </c>
-      <c r="C29" t="s">
-        <v>85</v>
-      </c>
-      <c r="D29" t="s">
-        <v>86</v>
-      </c>
-      <c r="E29" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1562,16 +1559,16 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C30" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D30" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E30" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1579,16 +1576,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" t="s">
+        <v>89</v>
+      </c>
+      <c r="D31" t="s">
+        <v>90</v>
+      </c>
+      <c r="E31" t="s">
         <v>91</v>
-      </c>
-      <c r="C31" t="s">
-        <v>92</v>
-      </c>
-      <c r="D31" t="s">
-        <v>93</v>
-      </c>
-      <c r="E31" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1596,7 +1593,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1604,16 +1601,16 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C33" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D33" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E33" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1621,16 +1618,16 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C34" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D34" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E34" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1638,16 +1635,16 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
+        <v>98</v>
+      </c>
+      <c r="C35" t="s">
+        <v>99</v>
+      </c>
+      <c r="D35" t="s">
+        <v>100</v>
+      </c>
+      <c r="E35" t="s">
         <v>101</v>
-      </c>
-      <c r="C35" t="s">
-        <v>102</v>
-      </c>
-      <c r="D35" t="s">
-        <v>103</v>
-      </c>
-      <c r="E35" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1655,7 +1652,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1663,16 +1660,16 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C37" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D37" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E37" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1680,16 +1677,16 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C38" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D38" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E38" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1697,16 +1694,16 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
+        <v>107</v>
+      </c>
+      <c r="C39" t="s">
+        <v>108</v>
+      </c>
+      <c r="D39" t="s">
+        <v>109</v>
+      </c>
+      <c r="E39" t="s">
         <v>110</v>
-      </c>
-      <c r="C39" t="s">
-        <v>111</v>
-      </c>
-      <c r="D39" t="s">
-        <v>112</v>
-      </c>
-      <c r="E39" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1714,7 +1711,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1722,16 +1719,16 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
+        <v>112</v>
+      </c>
+      <c r="C41" t="s">
+        <v>113</v>
+      </c>
+      <c r="D41" t="s">
+        <v>114</v>
+      </c>
+      <c r="E41" t="s">
         <v>115</v>
-      </c>
-      <c r="C41" t="s">
-        <v>116</v>
-      </c>
-      <c r="D41" t="s">
-        <v>117</v>
-      </c>
-      <c r="E41" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1739,16 +1736,16 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
+        <v>116</v>
+      </c>
+      <c r="C42" t="s">
+        <v>117</v>
+      </c>
+      <c r="D42" t="s">
+        <v>118</v>
+      </c>
+      <c r="E42" t="s">
         <v>119</v>
-      </c>
-      <c r="C42" t="s">
-        <v>120</v>
-      </c>
-      <c r="D42" t="s">
-        <v>121</v>
-      </c>
-      <c r="E42" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1757,16 +1754,16 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C43" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D43" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E43" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -1775,16 +1772,16 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
+        <v>121</v>
+      </c>
+      <c r="C44" t="s">
+        <v>122</v>
+      </c>
+      <c r="D44" t="s">
+        <v>123</v>
+      </c>
+      <c r="E44" t="s">
         <v>124</v>
-      </c>
-      <c r="C44" t="s">
-        <v>125</v>
-      </c>
-      <c r="D44" t="s">
-        <v>126</v>
-      </c>
-      <c r="E44" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -1793,16 +1790,16 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
+        <v>125</v>
+      </c>
+      <c r="C45" t="s">
+        <v>126</v>
+      </c>
+      <c r="D45" t="s">
+        <v>127</v>
+      </c>
+      <c r="E45" t="s">
         <v>128</v>
-      </c>
-      <c r="C45" t="s">
-        <v>129</v>
-      </c>
-      <c r="D45" t="s">
-        <v>130</v>
-      </c>
-      <c r="E45" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1811,7 +1808,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -1820,16 +1817,16 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
+        <v>130</v>
+      </c>
+      <c r="C47" t="s">
+        <v>131</v>
+      </c>
+      <c r="D47" t="s">
+        <v>132</v>
+      </c>
+      <c r="E47" t="s">
         <v>133</v>
-      </c>
-      <c r="C47" t="s">
-        <v>134</v>
-      </c>
-      <c r="D47" t="s">
-        <v>135</v>
-      </c>
-      <c r="E47" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -1838,16 +1835,16 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
+        <v>134</v>
+      </c>
+      <c r="C48" t="s">
+        <v>135</v>
+      </c>
+      <c r="D48" t="s">
+        <v>136</v>
+      </c>
+      <c r="E48" t="s">
         <v>137</v>
-      </c>
-      <c r="C48" t="s">
-        <v>138</v>
-      </c>
-      <c r="D48" t="s">
-        <v>139</v>
-      </c>
-      <c r="E48" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -1856,16 +1853,16 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C49" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D49" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E49" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -1874,16 +1871,16 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
+        <v>139</v>
+      </c>
+      <c r="C50" t="s">
+        <v>140</v>
+      </c>
+      <c r="D50" t="s">
+        <v>141</v>
+      </c>
+      <c r="E50" t="s">
         <v>142</v>
-      </c>
-      <c r="C50" t="s">
-        <v>143</v>
-      </c>
-      <c r="D50" t="s">
-        <v>144</v>
-      </c>
-      <c r="E50" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -1892,16 +1889,16 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
+        <v>143</v>
+      </c>
+      <c r="C51" t="s">
+        <v>144</v>
+      </c>
+      <c r="D51" t="s">
+        <v>145</v>
+      </c>
+      <c r="E51" t="s">
         <v>146</v>
-      </c>
-      <c r="C51" t="s">
-        <v>147</v>
-      </c>
-      <c r="D51" t="s">
-        <v>148</v>
-      </c>
-      <c r="E51" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -1910,16 +1907,16 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
+        <v>147</v>
+      </c>
+      <c r="C52" t="s">
+        <v>148</v>
+      </c>
+      <c r="D52" t="s">
+        <v>149</v>
+      </c>
+      <c r="E52" t="s">
         <v>150</v>
-      </c>
-      <c r="C52" t="s">
-        <v>151</v>
-      </c>
-      <c r="D52" t="s">
-        <v>152</v>
-      </c>
-      <c r="E52" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -1928,16 +1925,16 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
+        <v>151</v>
+      </c>
+      <c r="C53" t="s">
+        <v>152</v>
+      </c>
+      <c r="D53" t="s">
+        <v>153</v>
+      </c>
+      <c r="E53" t="s">
         <v>154</v>
-      </c>
-      <c r="C53" t="s">
-        <v>155</v>
-      </c>
-      <c r="D53" t="s">
-        <v>156</v>
-      </c>
-      <c r="E53" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -1946,16 +1943,16 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C54" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D54" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E54" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -1964,16 +1961,16 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
+        <v>156</v>
+      </c>
+      <c r="C55" t="s">
+        <v>157</v>
+      </c>
+      <c r="D55" t="s">
+        <v>158</v>
+      </c>
+      <c r="E55" t="s">
         <v>159</v>
-      </c>
-      <c r="C55" t="s">
-        <v>160</v>
-      </c>
-      <c r="D55" t="s">
-        <v>161</v>
-      </c>
-      <c r="E55" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -1982,16 +1979,16 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C56" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D56" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E56" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -2000,7 +1997,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -2009,16 +2006,16 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
+        <v>162</v>
+      </c>
+      <c r="C58" t="s">
+        <v>163</v>
+      </c>
+      <c r="D58" t="s">
+        <v>164</v>
+      </c>
+      <c r="E58" t="s">
         <v>165</v>
-      </c>
-      <c r="C58" t="s">
-        <v>166</v>
-      </c>
-      <c r="D58" t="s">
-        <v>167</v>
-      </c>
-      <c r="E58" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -2027,16 +2024,16 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
+        <v>166</v>
+      </c>
+      <c r="C59" t="s">
+        <v>167</v>
+      </c>
+      <c r="D59" t="s">
+        <v>168</v>
+      </c>
+      <c r="E59" t="s">
         <v>169</v>
-      </c>
-      <c r="C59" t="s">
-        <v>170</v>
-      </c>
-      <c r="D59" t="s">
-        <v>171</v>
-      </c>
-      <c r="E59" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -2045,16 +2042,16 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
+        <v>170</v>
+      </c>
+      <c r="C60" t="s">
+        <v>171</v>
+      </c>
+      <c r="D60" t="s">
+        <v>172</v>
+      </c>
+      <c r="E60" t="s">
         <v>173</v>
-      </c>
-      <c r="C60" t="s">
-        <v>174</v>
-      </c>
-      <c r="D60" t="s">
-        <v>175</v>
-      </c>
-      <c r="E60" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -2063,16 +2060,16 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
+        <v>174</v>
+      </c>
+      <c r="C61" t="s">
+        <v>175</v>
+      </c>
+      <c r="D61" t="s">
+        <v>176</v>
+      </c>
+      <c r="E61" t="s">
         <v>177</v>
-      </c>
-      <c r="C61" t="s">
-        <v>178</v>
-      </c>
-      <c r="D61" t="s">
-        <v>179</v>
-      </c>
-      <c r="E61" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -2081,16 +2078,16 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C62" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D62" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E62" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -2099,16 +2096,16 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
+        <v>179</v>
+      </c>
+      <c r="C63" t="s">
+        <v>180</v>
+      </c>
+      <c r="D63" t="s">
+        <v>181</v>
+      </c>
+      <c r="E63" t="s">
         <v>182</v>
-      </c>
-      <c r="C63" t="s">
-        <v>183</v>
-      </c>
-      <c r="D63" t="s">
-        <v>184</v>
-      </c>
-      <c r="E63" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -2117,16 +2114,16 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
+        <v>183</v>
+      </c>
+      <c r="C64" t="s">
+        <v>184</v>
+      </c>
+      <c r="D64" t="s">
+        <v>185</v>
+      </c>
+      <c r="E64" t="s">
         <v>186</v>
-      </c>
-      <c r="C64" t="s">
-        <v>187</v>
-      </c>
-      <c r="D64" t="s">
-        <v>188</v>
-      </c>
-      <c r="E64" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -2135,16 +2132,16 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
+        <v>187</v>
+      </c>
+      <c r="C65" t="s">
+        <v>188</v>
+      </c>
+      <c r="D65" t="s">
+        <v>189</v>
+      </c>
+      <c r="E65" t="s">
         <v>190</v>
-      </c>
-      <c r="C65" t="s">
-        <v>191</v>
-      </c>
-      <c r="D65" t="s">
-        <v>192</v>
-      </c>
-      <c r="E65" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -2153,7 +2150,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -2162,16 +2159,16 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
+        <v>192</v>
+      </c>
+      <c r="C67" t="s">
+        <v>193</v>
+      </c>
+      <c r="D67" t="s">
+        <v>194</v>
+      </c>
+      <c r="E67" t="s">
         <v>195</v>
-      </c>
-      <c r="C67" t="s">
-        <v>196</v>
-      </c>
-      <c r="D67" t="s">
-        <v>197</v>
-      </c>
-      <c r="E67" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -2180,16 +2177,16 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
+        <v>196</v>
+      </c>
+      <c r="C68" t="s">
+        <v>197</v>
+      </c>
+      <c r="D68" t="s">
+        <v>198</v>
+      </c>
+      <c r="E68" t="s">
         <v>199</v>
-      </c>
-      <c r="C68" t="s">
-        <v>200</v>
-      </c>
-      <c r="D68" t="s">
-        <v>201</v>
-      </c>
-      <c r="E68" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -2198,16 +2195,16 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
+        <v>200</v>
+      </c>
+      <c r="C69" t="s">
+        <v>201</v>
+      </c>
+      <c r="D69" t="s">
+        <v>202</v>
+      </c>
+      <c r="E69" t="s">
         <v>203</v>
-      </c>
-      <c r="C69" t="s">
-        <v>204</v>
-      </c>
-      <c r="D69" t="s">
-        <v>205</v>
-      </c>
-      <c r="E69" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -2216,16 +2213,16 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
+        <v>204</v>
+      </c>
+      <c r="C70" t="s">
+        <v>205</v>
+      </c>
+      <c r="D70" t="s">
+        <v>206</v>
+      </c>
+      <c r="E70" t="s">
         <v>207</v>
-      </c>
-      <c r="C70" t="s">
-        <v>208</v>
-      </c>
-      <c r="D70" t="s">
-        <v>209</v>
-      </c>
-      <c r="E70" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -2234,16 +2231,16 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C71" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D71" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E71" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -2252,16 +2249,16 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
+        <v>209</v>
+      </c>
+      <c r="C72" t="s">
+        <v>210</v>
+      </c>
+      <c r="D72" t="s">
+        <v>211</v>
+      </c>
+      <c r="E72" t="s">
         <v>212</v>
-      </c>
-      <c r="C72" t="s">
-        <v>213</v>
-      </c>
-      <c r="D72" t="s">
-        <v>214</v>
-      </c>
-      <c r="E72" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -2270,16 +2267,16 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
+        <v>213</v>
+      </c>
+      <c r="C73" t="s">
+        <v>214</v>
+      </c>
+      <c r="D73" t="s">
+        <v>215</v>
+      </c>
+      <c r="E73" t="s">
         <v>216</v>
-      </c>
-      <c r="C73" t="s">
-        <v>217</v>
-      </c>
-      <c r="D73" t="s">
-        <v>218</v>
-      </c>
-      <c r="E73" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -2288,16 +2285,16 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
+        <v>217</v>
+      </c>
+      <c r="C74" t="s">
+        <v>218</v>
+      </c>
+      <c r="D74" t="s">
+        <v>219</v>
+      </c>
+      <c r="E74" t="s">
         <v>220</v>
-      </c>
-      <c r="C74" t="s">
-        <v>221</v>
-      </c>
-      <c r="D74" t="s">
-        <v>222</v>
-      </c>
-      <c r="E74" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -2306,16 +2303,16 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
+        <v>221</v>
+      </c>
+      <c r="C75" t="s">
+        <v>222</v>
+      </c>
+      <c r="D75" t="s">
+        <v>223</v>
+      </c>
+      <c r="E75" t="s">
         <v>224</v>
-      </c>
-      <c r="C75" t="s">
-        <v>225</v>
-      </c>
-      <c r="D75" t="s">
-        <v>226</v>
-      </c>
-      <c r="E75" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -2324,46 +2321,16 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C76" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D76" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E76" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <f t="shared" si="0"/>
-        <v>76</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <f t="shared" si="0"/>
-        <v>77</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <f t="shared" si="0"/>
-        <v>78</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <f t="shared" si="0"/>
-        <v>79</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
